--- a/easy-poi-refactor/src/test/resources/员工信息.xlsx
+++ b/easy-poi-refactor/src/test/resources/员工信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop_projects\java\mzlion\mzlion-common\easy-poi-refactor\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>公司员工信息列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +158,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,13 +199,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,26 +254,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +567,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,34 +581,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -572,7 +623,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -588,10 +639,10 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -600,18 +651,18 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <v>42253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>1002</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -620,14 +671,14 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9">
+        <v>1003.21</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -644,12 +695,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>1003</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -664,7 +711,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
@@ -674,7 +723,10 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>